--- a/Tutorial/TransectsDoubleTutorial.xlsx
+++ b/Tutorial/TransectsDoubleTutorial.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">Lake name:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
   <si>
     <t xml:space="preserve">primary</t>
   </si>
@@ -35,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">Transect number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burgan</t>
   </si>
   <si>
     <t xml:space="preserve">Austen</t>
@@ -151,19 +145,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="1" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1012" min="12" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1013" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1011" min="11" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1012" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -179,24 +173,18 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -205,32 +193,26 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -239,32 +221,26 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -273,32 +249,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -307,32 +277,26 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -341,32 +305,26 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="n">
         <v>13</v>
       </c>
     </row>
@@ -375,32 +333,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -409,38 +361,29 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
